--- a/pages/setup/data/important/post.xlsx
+++ b/pages/setup/data/important/post.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\py\tt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FB30B1-04FC-4437-844F-69979D16F2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538DB435-EE9C-4DA4-AAAB-8A49A3FCA31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64275" yWindow="2625" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YYZ邮编7月15" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="678">
   <si>
     <t>id</t>
   </si>
@@ -1055,6 +1055,1005 @@
   </si>
   <si>
     <t>N6P</t>
+  </si>
+  <si>
+    <t>YUL</t>
+  </si>
+  <si>
+    <t>H1A</t>
+  </si>
+  <si>
+    <t>H1B</t>
+  </si>
+  <si>
+    <t>H1C</t>
+  </si>
+  <si>
+    <t>H1E</t>
+  </si>
+  <si>
+    <t>H1G</t>
+  </si>
+  <si>
+    <t>H1H</t>
+  </si>
+  <si>
+    <t>H1J</t>
+  </si>
+  <si>
+    <t>H1K</t>
+  </si>
+  <si>
+    <t>H1L</t>
+  </si>
+  <si>
+    <t>H1M</t>
+  </si>
+  <si>
+    <t>H1N</t>
+  </si>
+  <si>
+    <t>H1P</t>
+  </si>
+  <si>
+    <t>H1R</t>
+  </si>
+  <si>
+    <t>H1S</t>
+  </si>
+  <si>
+    <t>H1T</t>
+  </si>
+  <si>
+    <t>H1V</t>
+  </si>
+  <si>
+    <t>H1W</t>
+  </si>
+  <si>
+    <t>H1X</t>
+  </si>
+  <si>
+    <t>H1Y</t>
+  </si>
+  <si>
+    <t>H1Z</t>
+  </si>
+  <si>
+    <t>H2A</t>
+  </si>
+  <si>
+    <t>H2B</t>
+  </si>
+  <si>
+    <t>H2C</t>
+  </si>
+  <si>
+    <t>H2E</t>
+  </si>
+  <si>
+    <t>H2G</t>
+  </si>
+  <si>
+    <t>H2H</t>
+  </si>
+  <si>
+    <t>H2J</t>
+  </si>
+  <si>
+    <t>H2K</t>
+  </si>
+  <si>
+    <t>H2L</t>
+  </si>
+  <si>
+    <t>H2M</t>
+  </si>
+  <si>
+    <t>H2N</t>
+  </si>
+  <si>
+    <t>H2P</t>
+  </si>
+  <si>
+    <t>H2R</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>H2T</t>
+  </si>
+  <si>
+    <t>H2V</t>
+  </si>
+  <si>
+    <t>H2W</t>
+  </si>
+  <si>
+    <t>H2X</t>
+  </si>
+  <si>
+    <t>H2Y</t>
+  </si>
+  <si>
+    <t>H2Z</t>
+  </si>
+  <si>
+    <t>H3A</t>
+  </si>
+  <si>
+    <t>H3B</t>
+  </si>
+  <si>
+    <t>H3C</t>
+  </si>
+  <si>
+    <t>H3E</t>
+  </si>
+  <si>
+    <t>H3G</t>
+  </si>
+  <si>
+    <t>H3H</t>
+  </si>
+  <si>
+    <t>H3J</t>
+  </si>
+  <si>
+    <t>H3K</t>
+  </si>
+  <si>
+    <t>H3L</t>
+  </si>
+  <si>
+    <t>H3M</t>
+  </si>
+  <si>
+    <t>H3N</t>
+  </si>
+  <si>
+    <t>H3P</t>
+  </si>
+  <si>
+    <t>H3R</t>
+  </si>
+  <si>
+    <t>H3S</t>
+  </si>
+  <si>
+    <t>H3T</t>
+  </si>
+  <si>
+    <t>H3V</t>
+  </si>
+  <si>
+    <t>H3W</t>
+  </si>
+  <si>
+    <t>H3X</t>
+  </si>
+  <si>
+    <t>H3Y</t>
+  </si>
+  <si>
+    <t>H3Z</t>
+  </si>
+  <si>
+    <t>H4A</t>
+  </si>
+  <si>
+    <t>H4B</t>
+  </si>
+  <si>
+    <t>H4C</t>
+  </si>
+  <si>
+    <t>H4E</t>
+  </si>
+  <si>
+    <t>H4G</t>
+  </si>
+  <si>
+    <t>H4H</t>
+  </si>
+  <si>
+    <t>H4J</t>
+  </si>
+  <si>
+    <t>H4K</t>
+  </si>
+  <si>
+    <t>H4L</t>
+  </si>
+  <si>
+    <t>H4M</t>
+  </si>
+  <si>
+    <t>H4N</t>
+  </si>
+  <si>
+    <t>H4P</t>
+  </si>
+  <si>
+    <t>H4R</t>
+  </si>
+  <si>
+    <t>H4S</t>
+  </si>
+  <si>
+    <t>H4T</t>
+  </si>
+  <si>
+    <t>H4V</t>
+  </si>
+  <si>
+    <t>H4W</t>
+  </si>
+  <si>
+    <t>H4X</t>
+  </si>
+  <si>
+    <t>H7A</t>
+  </si>
+  <si>
+    <t>H7B</t>
+  </si>
+  <si>
+    <t>H7C</t>
+  </si>
+  <si>
+    <t>H7E</t>
+  </si>
+  <si>
+    <t>H7G</t>
+  </si>
+  <si>
+    <t>H7H</t>
+  </si>
+  <si>
+    <t>H7J</t>
+  </si>
+  <si>
+    <t>H7K</t>
+  </si>
+  <si>
+    <t>H7L</t>
+  </si>
+  <si>
+    <t>H7M</t>
+  </si>
+  <si>
+    <t>H7N</t>
+  </si>
+  <si>
+    <t>H7P</t>
+  </si>
+  <si>
+    <t>H7R</t>
+  </si>
+  <si>
+    <t>H7S</t>
+  </si>
+  <si>
+    <t>H7T</t>
+  </si>
+  <si>
+    <t>H7V</t>
+  </si>
+  <si>
+    <t>H7W</t>
+  </si>
+  <si>
+    <t>H7X</t>
+  </si>
+  <si>
+    <t>H7Y</t>
+  </si>
+  <si>
+    <t>H8N</t>
+  </si>
+  <si>
+    <t>H8P</t>
+  </si>
+  <si>
+    <t>H8R</t>
+  </si>
+  <si>
+    <t>H8S</t>
+  </si>
+  <si>
+    <t>H8T</t>
+  </si>
+  <si>
+    <t>H8Y</t>
+  </si>
+  <si>
+    <t>H8Z</t>
+  </si>
+  <si>
+    <t>H9A</t>
+  </si>
+  <si>
+    <t>H9B</t>
+  </si>
+  <si>
+    <t>H9C</t>
+  </si>
+  <si>
+    <t>H9E</t>
+  </si>
+  <si>
+    <t>H9G</t>
+  </si>
+  <si>
+    <t>H9H</t>
+  </si>
+  <si>
+    <t>H9J</t>
+  </si>
+  <si>
+    <t>H9K</t>
+  </si>
+  <si>
+    <t>H9P</t>
+  </si>
+  <si>
+    <t>H9R</t>
+  </si>
+  <si>
+    <t>H9S</t>
+  </si>
+  <si>
+    <t>H9W</t>
+  </si>
+  <si>
+    <t>H9X</t>
+  </si>
+  <si>
+    <t>J2S</t>
+  </si>
+  <si>
+    <t>J2T</t>
+  </si>
+  <si>
+    <t>J2W</t>
+  </si>
+  <si>
+    <t>J2X</t>
+  </si>
+  <si>
+    <t>J3A</t>
+  </si>
+  <si>
+    <t>J3B</t>
+  </si>
+  <si>
+    <t>J3E</t>
+  </si>
+  <si>
+    <t>J3G</t>
+  </si>
+  <si>
+    <t>J3H</t>
+  </si>
+  <si>
+    <t>J3L</t>
+  </si>
+  <si>
+    <t>J3N</t>
+  </si>
+  <si>
+    <t>J3V</t>
+  </si>
+  <si>
+    <t>J3X</t>
+  </si>
+  <si>
+    <t>J3Y</t>
+  </si>
+  <si>
+    <t>J3Z</t>
+  </si>
+  <si>
+    <t>J4B</t>
+  </si>
+  <si>
+    <t>J4G</t>
+  </si>
+  <si>
+    <t>J4H</t>
+  </si>
+  <si>
+    <t>J4J</t>
+  </si>
+  <si>
+    <t>J4K</t>
+  </si>
+  <si>
+    <t>J4L</t>
+  </si>
+  <si>
+    <t>J4M</t>
+  </si>
+  <si>
+    <t>J4N</t>
+  </si>
+  <si>
+    <t>J4P</t>
+  </si>
+  <si>
+    <t>J4R</t>
+  </si>
+  <si>
+    <t>J4S</t>
+  </si>
+  <si>
+    <t>J4T</t>
+  </si>
+  <si>
+    <t>J4V</t>
+  </si>
+  <si>
+    <t>J4W</t>
+  </si>
+  <si>
+    <t>J4X</t>
+  </si>
+  <si>
+    <t>J4Y</t>
+  </si>
+  <si>
+    <t>J4Z</t>
+  </si>
+  <si>
+    <t>J5A</t>
+  </si>
+  <si>
+    <t>J5B</t>
+  </si>
+  <si>
+    <t>J5C</t>
+  </si>
+  <si>
+    <t>J5R</t>
+  </si>
+  <si>
+    <t>J5Y</t>
+  </si>
+  <si>
+    <t>J5Z</t>
+  </si>
+  <si>
+    <t>J6A</t>
+  </si>
+  <si>
+    <t>J6J</t>
+  </si>
+  <si>
+    <t>J6K</t>
+  </si>
+  <si>
+    <t>J6S</t>
+  </si>
+  <si>
+    <t>J6T</t>
+  </si>
+  <si>
+    <t>J6V</t>
+  </si>
+  <si>
+    <t>J6W</t>
+  </si>
+  <si>
+    <t>J6X</t>
+  </si>
+  <si>
+    <t>J6Y</t>
+  </si>
+  <si>
+    <t>J6Z</t>
+  </si>
+  <si>
+    <t>J7A</t>
+  </si>
+  <si>
+    <t>J7B</t>
+  </si>
+  <si>
+    <t>J7C</t>
+  </si>
+  <si>
+    <t>J7E</t>
+  </si>
+  <si>
+    <t>J7G</t>
+  </si>
+  <si>
+    <t>J7H</t>
+  </si>
+  <si>
+    <t>J7J</t>
+  </si>
+  <si>
+    <t>J7K</t>
+  </si>
+  <si>
+    <t>J7L</t>
+  </si>
+  <si>
+    <t>J7M</t>
+  </si>
+  <si>
+    <t>J7P</t>
+  </si>
+  <si>
+    <t>J7R</t>
+  </si>
+  <si>
+    <t>J7T</t>
+  </si>
+  <si>
+    <t>J7V</t>
+  </si>
+  <si>
+    <t>J7W</t>
+  </si>
+  <si>
+    <t>J7Y</t>
+  </si>
+  <si>
+    <t>J7Z</t>
+  </si>
+  <si>
+    <t>R2V</t>
+  </si>
+  <si>
+    <t>R3E</t>
+  </si>
+  <si>
+    <t>R2H</t>
+  </si>
+  <si>
+    <t>R3J</t>
+  </si>
+  <si>
+    <t>R3R</t>
+  </si>
+  <si>
+    <t>R3C</t>
+  </si>
+  <si>
+    <t>R3H</t>
+  </si>
+  <si>
+    <t>R2G</t>
+  </si>
+  <si>
+    <t>R2M</t>
+  </si>
+  <si>
+    <t>R3K</t>
+  </si>
+  <si>
+    <t>R2C</t>
+  </si>
+  <si>
+    <t>R2R</t>
+  </si>
+  <si>
+    <t>R3G</t>
+  </si>
+  <si>
+    <t>R2K</t>
+  </si>
+  <si>
+    <t>R3T</t>
+  </si>
+  <si>
+    <t>R2L</t>
+  </si>
+  <si>
+    <t>R3Y</t>
+  </si>
+  <si>
+    <t>R2P</t>
+  </si>
+  <si>
+    <t>R3L</t>
+  </si>
+  <si>
+    <t>R3P</t>
+  </si>
+  <si>
+    <t>R2W</t>
+  </si>
+  <si>
+    <t>R3N</t>
+  </si>
+  <si>
+    <t>R2Y</t>
+  </si>
+  <si>
+    <t>R3X</t>
+  </si>
+  <si>
+    <t>R3A</t>
+  </si>
+  <si>
+    <t>R2N</t>
+  </si>
+  <si>
+    <t>R3M</t>
+  </si>
+  <si>
+    <t>R2X</t>
+  </si>
+  <si>
+    <t>R2J</t>
+  </si>
+  <si>
+    <t>R3W</t>
+  </si>
+  <si>
+    <t>R3B</t>
+  </si>
+  <si>
+    <t>R3V</t>
+  </si>
+  <si>
+    <t>R3S</t>
+  </si>
+  <si>
+    <t>YWG</t>
+  </si>
+  <si>
+    <t>G1H</t>
+  </si>
+  <si>
+    <t>G2K</t>
+  </si>
+  <si>
+    <t>G1M</t>
+  </si>
+  <si>
+    <t>G1W</t>
+  </si>
+  <si>
+    <t>G1V</t>
+  </si>
+  <si>
+    <t>G1X</t>
+  </si>
+  <si>
+    <t>G2E</t>
+  </si>
+  <si>
+    <t>G1G</t>
+  </si>
+  <si>
+    <t>G2B</t>
+  </si>
+  <si>
+    <t>G1C</t>
+  </si>
+  <si>
+    <t>G2C</t>
+  </si>
+  <si>
+    <t>G1P</t>
+  </si>
+  <si>
+    <t>G1K</t>
+  </si>
+  <si>
+    <t>G1R</t>
+  </si>
+  <si>
+    <t>G1E</t>
+  </si>
+  <si>
+    <t>G2L</t>
+  </si>
+  <si>
+    <t>G1L</t>
+  </si>
+  <si>
+    <t>G3E</t>
+  </si>
+  <si>
+    <t>G1S</t>
+  </si>
+  <si>
+    <t>G1Y</t>
+  </si>
+  <si>
+    <t>G1J</t>
+  </si>
+  <si>
+    <t>G1N</t>
+  </si>
+  <si>
+    <t>G1T</t>
+  </si>
+  <si>
+    <t>G2J</t>
+  </si>
+  <si>
+    <t>YQB</t>
+  </si>
+  <si>
+    <t>B2V</t>
+  </si>
+  <si>
+    <t>B2W</t>
+  </si>
+  <si>
+    <t>B3N</t>
+  </si>
+  <si>
+    <t>B3M</t>
+  </si>
+  <si>
+    <t>B3L</t>
+  </si>
+  <si>
+    <t>B4C</t>
+  </si>
+  <si>
+    <t>B3S</t>
+  </si>
+  <si>
+    <t>B3J</t>
+  </si>
+  <si>
+    <t>B3H</t>
+  </si>
+  <si>
+    <t>B2Y</t>
+  </si>
+  <si>
+    <t>B3P</t>
+  </si>
+  <si>
+    <t>B3G</t>
+  </si>
+  <si>
+    <t>B3R</t>
+  </si>
+  <si>
+    <t>B4E</t>
+  </si>
+  <si>
+    <t>B4A</t>
+  </si>
+  <si>
+    <t>B2X</t>
+  </si>
+  <si>
+    <t>B3K</t>
+  </si>
+  <si>
+    <t>B3A</t>
+  </si>
+  <si>
+    <t>B3B</t>
+  </si>
+  <si>
+    <t>YHZ</t>
+  </si>
+  <si>
+    <t>E1B</t>
+  </si>
+  <si>
+    <t>E1C</t>
+  </si>
+  <si>
+    <t>E1A</t>
+  </si>
+  <si>
+    <t>E1E</t>
+  </si>
+  <si>
+    <t>YQM</t>
+  </si>
+  <si>
+    <t>A1L</t>
+  </si>
+  <si>
+    <t>A1C</t>
+  </si>
+  <si>
+    <t>A1H</t>
+  </si>
+  <si>
+    <t>A1S</t>
+  </si>
+  <si>
+    <t>A1W</t>
+  </si>
+  <si>
+    <t>A1E</t>
+  </si>
+  <si>
+    <t>A1B</t>
+  </si>
+  <si>
+    <t>A1A</t>
+  </si>
+  <si>
+    <t>A1G</t>
+  </si>
+  <si>
+    <t>A1N</t>
+  </si>
+  <si>
+    <t>YYT</t>
+  </si>
+  <si>
+    <t>K2K</t>
+  </si>
+  <si>
+    <t>K2T</t>
+  </si>
+  <si>
+    <t>K2W</t>
+  </si>
+  <si>
+    <t>K2S</t>
+  </si>
+  <si>
+    <t>K2V</t>
+  </si>
+  <si>
+    <t>K2L</t>
+  </si>
+  <si>
+    <t>K2M</t>
+  </si>
+  <si>
+    <t>K2J</t>
+  </si>
+  <si>
+    <t>K2R</t>
+  </si>
+  <si>
+    <t>K4M</t>
+  </si>
+  <si>
+    <t>K1C</t>
+  </si>
+  <si>
+    <t>K1W</t>
+  </si>
+  <si>
+    <t>K4B</t>
+  </si>
+  <si>
+    <t>K1E</t>
+  </si>
+  <si>
+    <t>K4A</t>
+  </si>
+  <si>
+    <t>J8X</t>
+  </si>
+  <si>
+    <t>J8Y</t>
+  </si>
+  <si>
+    <t>J8Z</t>
+  </si>
+  <si>
+    <t>J9A</t>
+  </si>
+  <si>
+    <t>J9H</t>
+  </si>
+  <si>
+    <t>J9J</t>
+  </si>
+  <si>
+    <t>J8T</t>
+  </si>
+  <si>
+    <t>J8V</t>
+  </si>
+  <si>
+    <t>J8M</t>
+  </si>
+  <si>
+    <t>J8P</t>
+  </si>
+  <si>
+    <t>J8R</t>
+  </si>
+  <si>
+    <t>K1K</t>
+  </si>
+  <si>
+    <t>K1L</t>
+  </si>
+  <si>
+    <t>K1M</t>
+  </si>
+  <si>
+    <t>K1J</t>
+  </si>
+  <si>
+    <t>K1A</t>
+  </si>
+  <si>
+    <t>K1N</t>
+  </si>
+  <si>
+    <t>K1R</t>
+  </si>
+  <si>
+    <t>K1P</t>
+  </si>
+  <si>
+    <t>K2P</t>
+  </si>
+  <si>
+    <t>K1S</t>
+  </si>
+  <si>
+    <t>K2B</t>
+  </si>
+  <si>
+    <t>K2H</t>
+  </si>
+  <si>
+    <t>K1Y</t>
+  </si>
+  <si>
+    <t>K1Z</t>
+  </si>
+  <si>
+    <t>K2A</t>
+  </si>
+  <si>
+    <t>K2G</t>
+  </si>
+  <si>
+    <t>K2C</t>
+  </si>
+  <si>
+    <t>K2E</t>
+  </si>
+  <si>
+    <t>K1T</t>
+  </si>
+  <si>
+    <t>K1X</t>
+  </si>
+  <si>
+    <t>K4P</t>
+  </si>
+  <si>
+    <t>K1V</t>
+  </si>
+  <si>
+    <t>K1H</t>
+  </si>
+  <si>
+    <t>K1B</t>
+  </si>
+  <si>
+    <t>K1G</t>
+  </si>
+  <si>
+    <t>K6H</t>
+  </si>
+  <si>
+    <t>K6J</t>
+  </si>
+  <si>
+    <t>K6K</t>
+  </si>
+  <si>
+    <t>YOW</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +2584,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1895,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L288"/>
+  <dimension ref="A1:L614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N570" sqref="N570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11462,8 +12472,8 @@
       <c r="A274">
         <v>1772</v>
       </c>
-      <c r="B274">
-        <v>99241</v>
+      <c r="B274" t="s">
+        <v>330</v>
       </c>
       <c r="C274" t="s">
         <v>328</v>
@@ -11497,8 +12507,8 @@
       <c r="A275">
         <v>1774</v>
       </c>
-      <c r="B275">
-        <v>99241</v>
+      <c r="B275" t="s">
+        <v>330</v>
       </c>
       <c r="C275" t="s">
         <v>331</v>
@@ -11529,8 +12539,8 @@
       <c r="A276">
         <v>1773</v>
       </c>
-      <c r="B276">
-        <v>99241</v>
+      <c r="B276" t="s">
+        <v>330</v>
       </c>
       <c r="C276" t="s">
         <v>332</v>
@@ -11561,8 +12571,8 @@
       <c r="A277">
         <v>1778</v>
       </c>
-      <c r="B277">
-        <v>99242</v>
+      <c r="B277" t="s">
+        <v>330</v>
       </c>
       <c r="C277" t="s">
         <v>333</v>
@@ -11596,8 +12606,8 @@
       <c r="A278">
         <v>1779</v>
       </c>
-      <c r="B278">
-        <v>99242</v>
+      <c r="B278" t="s">
+        <v>330</v>
       </c>
       <c r="C278" t="s">
         <v>334</v>
@@ -11631,8 +12641,8 @@
       <c r="A279">
         <v>1775</v>
       </c>
-      <c r="B279">
-        <v>99242</v>
+      <c r="B279" t="s">
+        <v>330</v>
       </c>
       <c r="C279" t="s">
         <v>335</v>
@@ -11666,8 +12676,8 @@
       <c r="A280">
         <v>1776</v>
       </c>
-      <c r="B280">
-        <v>99242</v>
+      <c r="B280" t="s">
+        <v>330</v>
       </c>
       <c r="C280" t="s">
         <v>336</v>
@@ -11701,8 +12711,8 @@
       <c r="A281">
         <v>1777</v>
       </c>
-      <c r="B281">
-        <v>99242</v>
+      <c r="B281" t="s">
+        <v>330</v>
       </c>
       <c r="C281" t="s">
         <v>337</v>
@@ -11736,8 +12746,8 @@
       <c r="A282">
         <v>1780</v>
       </c>
-      <c r="B282">
-        <v>99243</v>
+      <c r="B282" t="s">
+        <v>330</v>
       </c>
       <c r="C282" t="s">
         <v>338</v>
@@ -11771,8 +12781,8 @@
       <c r="A283">
         <v>1782</v>
       </c>
-      <c r="B283">
-        <v>99243</v>
+      <c r="B283" t="s">
+        <v>330</v>
       </c>
       <c r="C283" t="s">
         <v>339</v>
@@ -11806,8 +12816,8 @@
       <c r="A284">
         <v>1783</v>
       </c>
-      <c r="B284">
-        <v>99243</v>
+      <c r="B284" t="s">
+        <v>330</v>
       </c>
       <c r="C284" t="s">
         <v>340</v>
@@ -11838,8 +12848,8 @@
       <c r="A285">
         <v>1781</v>
       </c>
-      <c r="B285">
-        <v>99243</v>
+      <c r="B285" t="s">
+        <v>330</v>
       </c>
       <c r="C285" t="s">
         <v>341</v>
@@ -11870,8 +12880,8 @@
       <c r="A286">
         <v>1784</v>
       </c>
-      <c r="B286">
-        <v>99244</v>
+      <c r="B286" t="s">
+        <v>330</v>
       </c>
       <c r="C286" t="s">
         <v>342</v>
@@ -11902,8 +12912,8 @@
       <c r="A287">
         <v>1785</v>
       </c>
-      <c r="B287">
-        <v>99244</v>
+      <c r="B287" t="s">
+        <v>330</v>
       </c>
       <c r="C287" t="s">
         <v>343</v>
@@ -11934,8 +12944,8 @@
       <c r="A288">
         <v>1786</v>
       </c>
-      <c r="B288">
-        <v>99244</v>
+      <c r="B288" t="s">
+        <v>330</v>
       </c>
       <c r="C288" t="s">
         <v>344</v>
@@ -11962,7 +12972,2618 @@
         <v>1</v>
       </c>
     </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>345</v>
+      </c>
+      <c r="C289" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>345</v>
+      </c>
+      <c r="C290" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>345</v>
+      </c>
+      <c r="C291" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>345</v>
+      </c>
+      <c r="C292" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>345</v>
+      </c>
+      <c r="C293" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>345</v>
+      </c>
+      <c r="C294" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>345</v>
+      </c>
+      <c r="C295" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>345</v>
+      </c>
+      <c r="C296" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>345</v>
+      </c>
+      <c r="C297" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>345</v>
+      </c>
+      <c r="C298" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>345</v>
+      </c>
+      <c r="C299" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>345</v>
+      </c>
+      <c r="C300" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>345</v>
+      </c>
+      <c r="C301" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>345</v>
+      </c>
+      <c r="C302" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>345</v>
+      </c>
+      <c r="C303" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>345</v>
+      </c>
+      <c r="C304" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>345</v>
+      </c>
+      <c r="C305" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>345</v>
+      </c>
+      <c r="C306" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>345</v>
+      </c>
+      <c r="C307" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>345</v>
+      </c>
+      <c r="C308" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>345</v>
+      </c>
+      <c r="C309" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>345</v>
+      </c>
+      <c r="C310" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>345</v>
+      </c>
+      <c r="C311" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>345</v>
+      </c>
+      <c r="C312" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>345</v>
+      </c>
+      <c r="C313" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>345</v>
+      </c>
+      <c r="C314" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>345</v>
+      </c>
+      <c r="C315" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>345</v>
+      </c>
+      <c r="C316" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>345</v>
+      </c>
+      <c r="C317" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>345</v>
+      </c>
+      <c r="C318" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>345</v>
+      </c>
+      <c r="C319" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>345</v>
+      </c>
+      <c r="C320" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>345</v>
+      </c>
+      <c r="C321" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>345</v>
+      </c>
+      <c r="C322" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>345</v>
+      </c>
+      <c r="C323" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>345</v>
+      </c>
+      <c r="C324" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>345</v>
+      </c>
+      <c r="C325" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>345</v>
+      </c>
+      <c r="C326" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>345</v>
+      </c>
+      <c r="C327" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>345</v>
+      </c>
+      <c r="C328" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>345</v>
+      </c>
+      <c r="C329" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>345</v>
+      </c>
+      <c r="C330" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>345</v>
+      </c>
+      <c r="C331" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>345</v>
+      </c>
+      <c r="C332" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>345</v>
+      </c>
+      <c r="C333" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>345</v>
+      </c>
+      <c r="C334" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>345</v>
+      </c>
+      <c r="C335" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>345</v>
+      </c>
+      <c r="C336" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>345</v>
+      </c>
+      <c r="C337" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>345</v>
+      </c>
+      <c r="C338" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>345</v>
+      </c>
+      <c r="C339" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>345</v>
+      </c>
+      <c r="C340" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>345</v>
+      </c>
+      <c r="C341" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>345</v>
+      </c>
+      <c r="C342" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>345</v>
+      </c>
+      <c r="C343" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>345</v>
+      </c>
+      <c r="C344" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+      <c r="C345" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>345</v>
+      </c>
+      <c r="C346" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>345</v>
+      </c>
+      <c r="C347" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>345</v>
+      </c>
+      <c r="C348" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>345</v>
+      </c>
+      <c r="C349" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>345</v>
+      </c>
+      <c r="C350" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>345</v>
+      </c>
+      <c r="C351" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>345</v>
+      </c>
+      <c r="C352" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>345</v>
+      </c>
+      <c r="C353" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>345</v>
+      </c>
+      <c r="C354" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>345</v>
+      </c>
+      <c r="C355" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>345</v>
+      </c>
+      <c r="C356" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>345</v>
+      </c>
+      <c r="C357" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>345</v>
+      </c>
+      <c r="C358" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>345</v>
+      </c>
+      <c r="C359" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>345</v>
+      </c>
+      <c r="C360" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>345</v>
+      </c>
+      <c r="C361" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>345</v>
+      </c>
+      <c r="C362" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>345</v>
+      </c>
+      <c r="C363" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>345</v>
+      </c>
+      <c r="C364" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>345</v>
+      </c>
+      <c r="C365" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>345</v>
+      </c>
+      <c r="C366" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>345</v>
+      </c>
+      <c r="C367" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>345</v>
+      </c>
+      <c r="C368" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>345</v>
+      </c>
+      <c r="C369" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>345</v>
+      </c>
+      <c r="C370" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>345</v>
+      </c>
+      <c r="C371" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>345</v>
+      </c>
+      <c r="C372" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>345</v>
+      </c>
+      <c r="C373" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>345</v>
+      </c>
+      <c r="C374" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>345</v>
+      </c>
+      <c r="C375" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>345</v>
+      </c>
+      <c r="C376" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>345</v>
+      </c>
+      <c r="C377" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>345</v>
+      </c>
+      <c r="C378" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>345</v>
+      </c>
+      <c r="C379" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>345</v>
+      </c>
+      <c r="C380" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>345</v>
+      </c>
+      <c r="C381" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>345</v>
+      </c>
+      <c r="C382" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>345</v>
+      </c>
+      <c r="C383" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>345</v>
+      </c>
+      <c r="C384" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>345</v>
+      </c>
+      <c r="C385" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>345</v>
+      </c>
+      <c r="C386" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>345</v>
+      </c>
+      <c r="C387" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>345</v>
+      </c>
+      <c r="C388" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>345</v>
+      </c>
+      <c r="C389" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>345</v>
+      </c>
+      <c r="C390" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>345</v>
+      </c>
+      <c r="C391" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>345</v>
+      </c>
+      <c r="C392" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>345</v>
+      </c>
+      <c r="C393" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>345</v>
+      </c>
+      <c r="C394" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>345</v>
+      </c>
+      <c r="C395" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>345</v>
+      </c>
+      <c r="C396" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>345</v>
+      </c>
+      <c r="C397" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>345</v>
+      </c>
+      <c r="C398" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>345</v>
+      </c>
+      <c r="C399" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>345</v>
+      </c>
+      <c r="C400" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>345</v>
+      </c>
+      <c r="C401" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>345</v>
+      </c>
+      <c r="C402" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>345</v>
+      </c>
+      <c r="C403" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>345</v>
+      </c>
+      <c r="C404" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>345</v>
+      </c>
+      <c r="C405" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>345</v>
+      </c>
+      <c r="C406" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>345</v>
+      </c>
+      <c r="C407" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>345</v>
+      </c>
+      <c r="C408" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>345</v>
+      </c>
+      <c r="C409" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>345</v>
+      </c>
+      <c r="C410" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>345</v>
+      </c>
+      <c r="C411" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>345</v>
+      </c>
+      <c r="C412" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>345</v>
+      </c>
+      <c r="C413" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>345</v>
+      </c>
+      <c r="C414" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>345</v>
+      </c>
+      <c r="C415" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>345</v>
+      </c>
+      <c r="C416" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>345</v>
+      </c>
+      <c r="C417" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>345</v>
+      </c>
+      <c r="C418" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>345</v>
+      </c>
+      <c r="C419" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>345</v>
+      </c>
+      <c r="C420" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>345</v>
+      </c>
+      <c r="C421" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>345</v>
+      </c>
+      <c r="C422" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>345</v>
+      </c>
+      <c r="C423" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>345</v>
+      </c>
+      <c r="C424" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>345</v>
+      </c>
+      <c r="C425" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>345</v>
+      </c>
+      <c r="C426" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>345</v>
+      </c>
+      <c r="C427" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>345</v>
+      </c>
+      <c r="C428" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>345</v>
+      </c>
+      <c r="C429" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>345</v>
+      </c>
+      <c r="C430" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>345</v>
+      </c>
+      <c r="C431" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>345</v>
+      </c>
+      <c r="C432" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>345</v>
+      </c>
+      <c r="C433" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>345</v>
+      </c>
+      <c r="C434" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>345</v>
+      </c>
+      <c r="C435" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>345</v>
+      </c>
+      <c r="C436" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>345</v>
+      </c>
+      <c r="C437" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>345</v>
+      </c>
+      <c r="C438" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>345</v>
+      </c>
+      <c r="C439" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>345</v>
+      </c>
+      <c r="C440" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>345</v>
+      </c>
+      <c r="C441" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>345</v>
+      </c>
+      <c r="C442" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>345</v>
+      </c>
+      <c r="C443" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>345</v>
+      </c>
+      <c r="C444" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>345</v>
+      </c>
+      <c r="C445" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>345</v>
+      </c>
+      <c r="C446" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>345</v>
+      </c>
+      <c r="C447" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>345</v>
+      </c>
+      <c r="C448" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>345</v>
+      </c>
+      <c r="C449" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
+        <v>345</v>
+      </c>
+      <c r="C450" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>345</v>
+      </c>
+      <c r="C451" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>345</v>
+      </c>
+      <c r="C452" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
+        <v>345</v>
+      </c>
+      <c r="C453" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
+        <v>345</v>
+      </c>
+      <c r="C454" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>345</v>
+      </c>
+      <c r="C455" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>345</v>
+      </c>
+      <c r="C456" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>345</v>
+      </c>
+      <c r="C457" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>345</v>
+      </c>
+      <c r="C458" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>345</v>
+      </c>
+      <c r="C459" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>345</v>
+      </c>
+      <c r="C460" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B461" t="s">
+        <v>345</v>
+      </c>
+      <c r="C461" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B462" t="s">
+        <v>345</v>
+      </c>
+      <c r="C462" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B463" t="s">
+        <v>345</v>
+      </c>
+      <c r="C463" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B464" t="s">
+        <v>345</v>
+      </c>
+      <c r="C464" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
+        <v>345</v>
+      </c>
+      <c r="C465" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>345</v>
+      </c>
+      <c r="C466" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>345</v>
+      </c>
+      <c r="C467" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>345</v>
+      </c>
+      <c r="C468" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>345</v>
+      </c>
+      <c r="C469" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>345</v>
+      </c>
+      <c r="C470" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>561</v>
+      </c>
+      <c r="C471" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>561</v>
+      </c>
+      <c r="C472" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>561</v>
+      </c>
+      <c r="C473" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>561</v>
+      </c>
+      <c r="C474" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>561</v>
+      </c>
+      <c r="C475" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B476" t="s">
+        <v>561</v>
+      </c>
+      <c r="C476" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B477" t="s">
+        <v>561</v>
+      </c>
+      <c r="C477" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B478" t="s">
+        <v>561</v>
+      </c>
+      <c r="C478" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B479" t="s">
+        <v>561</v>
+      </c>
+      <c r="C479" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B480" t="s">
+        <v>561</v>
+      </c>
+      <c r="C480" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B481" t="s">
+        <v>561</v>
+      </c>
+      <c r="C481" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B482" t="s">
+        <v>561</v>
+      </c>
+      <c r="C482" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B483" t="s">
+        <v>561</v>
+      </c>
+      <c r="C483" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B484" t="s">
+        <v>561</v>
+      </c>
+      <c r="C484" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B485" t="s">
+        <v>561</v>
+      </c>
+      <c r="C485" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B486" t="s">
+        <v>561</v>
+      </c>
+      <c r="C486" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B487" t="s">
+        <v>561</v>
+      </c>
+      <c r="C487" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B488" t="s">
+        <v>561</v>
+      </c>
+      <c r="C488" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B489" t="s">
+        <v>561</v>
+      </c>
+      <c r="C489" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B490" t="s">
+        <v>561</v>
+      </c>
+      <c r="C490" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B491" t="s">
+        <v>561</v>
+      </c>
+      <c r="C491" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B492" t="s">
+        <v>561</v>
+      </c>
+      <c r="C492" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B493" t="s">
+        <v>561</v>
+      </c>
+      <c r="C493" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B494" t="s">
+        <v>561</v>
+      </c>
+      <c r="C494" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B495" t="s">
+        <v>561</v>
+      </c>
+      <c r="C495" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B496" t="s">
+        <v>561</v>
+      </c>
+      <c r="C496" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B497" t="s">
+        <v>561</v>
+      </c>
+      <c r="C497" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B498" t="s">
+        <v>561</v>
+      </c>
+      <c r="C498" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B499" t="s">
+        <v>561</v>
+      </c>
+      <c r="C499" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B500" t="s">
+        <v>561</v>
+      </c>
+      <c r="C500" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B501" t="s">
+        <v>561</v>
+      </c>
+      <c r="C501" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B502" t="s">
+        <v>561</v>
+      </c>
+      <c r="C502" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B503" t="s">
+        <v>561</v>
+      </c>
+      <c r="C503" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B504" t="s">
+        <v>586</v>
+      </c>
+      <c r="C504" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B505" t="s">
+        <v>586</v>
+      </c>
+      <c r="C505" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>586</v>
+      </c>
+      <c r="C506" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>586</v>
+      </c>
+      <c r="C507" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>586</v>
+      </c>
+      <c r="C508" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>586</v>
+      </c>
+      <c r="C509" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>586</v>
+      </c>
+      <c r="C510" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>586</v>
+      </c>
+      <c r="C511" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>586</v>
+      </c>
+      <c r="C512" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>586</v>
+      </c>
+      <c r="C513" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B514" t="s">
+        <v>586</v>
+      </c>
+      <c r="C514" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B515" t="s">
+        <v>586</v>
+      </c>
+      <c r="C515" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B516" t="s">
+        <v>586</v>
+      </c>
+      <c r="C516" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B517" t="s">
+        <v>586</v>
+      </c>
+      <c r="C517" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B518" t="s">
+        <v>586</v>
+      </c>
+      <c r="C518" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B519" t="s">
+        <v>586</v>
+      </c>
+      <c r="C519" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B520" t="s">
+        <v>586</v>
+      </c>
+      <c r="C520" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B521" t="s">
+        <v>586</v>
+      </c>
+      <c r="C521" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B522" t="s">
+        <v>586</v>
+      </c>
+      <c r="C522" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B523" t="s">
+        <v>586</v>
+      </c>
+      <c r="C523" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B524" t="s">
+        <v>586</v>
+      </c>
+      <c r="C524" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B525" t="s">
+        <v>586</v>
+      </c>
+      <c r="C525" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B526" t="s">
+        <v>586</v>
+      </c>
+      <c r="C526" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>586</v>
+      </c>
+      <c r="C527" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>606</v>
+      </c>
+      <c r="C528" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B529" t="s">
+        <v>606</v>
+      </c>
+      <c r="C529" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B530" t="s">
+        <v>606</v>
+      </c>
+      <c r="C530" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B531" t="s">
+        <v>606</v>
+      </c>
+      <c r="C531" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>606</v>
+      </c>
+      <c r="C532" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>606</v>
+      </c>
+      <c r="C533" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>606</v>
+      </c>
+      <c r="C534" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B535" t="s">
+        <v>606</v>
+      </c>
+      <c r="C535" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B536" t="s">
+        <v>606</v>
+      </c>
+      <c r="C536" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>606</v>
+      </c>
+      <c r="C537" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B538" t="s">
+        <v>606</v>
+      </c>
+      <c r="C538" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B539" t="s">
+        <v>606</v>
+      </c>
+      <c r="C539" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B540" t="s">
+        <v>606</v>
+      </c>
+      <c r="C540" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B541" t="s">
+        <v>606</v>
+      </c>
+      <c r="C541" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B542" t="s">
+        <v>606</v>
+      </c>
+      <c r="C542" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B543" t="s">
+        <v>606</v>
+      </c>
+      <c r="C543" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B544" t="s">
+        <v>606</v>
+      </c>
+      <c r="C544" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B545" t="s">
+        <v>606</v>
+      </c>
+      <c r="C545" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B546" t="s">
+        <v>606</v>
+      </c>
+      <c r="C546" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B547" t="s">
+        <v>611</v>
+      </c>
+      <c r="C547" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B548" t="s">
+        <v>611</v>
+      </c>
+      <c r="C548" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B549" t="s">
+        <v>611</v>
+      </c>
+      <c r="C549" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B550" t="s">
+        <v>611</v>
+      </c>
+      <c r="C550" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B551" t="s">
+        <v>622</v>
+      </c>
+      <c r="C551" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B552" t="s">
+        <v>622</v>
+      </c>
+      <c r="C552" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B553" t="s">
+        <v>622</v>
+      </c>
+      <c r="C553" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="554" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B554" t="s">
+        <v>622</v>
+      </c>
+      <c r="C554" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B555" t="s">
+        <v>622</v>
+      </c>
+      <c r="C555" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B556" t="s">
+        <v>622</v>
+      </c>
+      <c r="C556" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B557" t="s">
+        <v>622</v>
+      </c>
+      <c r="C557" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B558" t="s">
+        <v>622</v>
+      </c>
+      <c r="C558" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B559" t="s">
+        <v>622</v>
+      </c>
+      <c r="C559" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B560" t="s">
+        <v>622</v>
+      </c>
+      <c r="C560" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B561" t="s">
+        <v>677</v>
+      </c>
+      <c r="C561" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B562" t="s">
+        <v>677</v>
+      </c>
+      <c r="C562" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B563" t="s">
+        <v>677</v>
+      </c>
+      <c r="C563" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B564" t="s">
+        <v>677</v>
+      </c>
+      <c r="C564" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B565" t="s">
+        <v>677</v>
+      </c>
+      <c r="C565" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B566" t="s">
+        <v>677</v>
+      </c>
+      <c r="C566" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B567" t="s">
+        <v>677</v>
+      </c>
+      <c r="C567" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B568" t="s">
+        <v>677</v>
+      </c>
+      <c r="C568" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B569" t="s">
+        <v>677</v>
+      </c>
+      <c r="C569" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B570" t="s">
+        <v>677</v>
+      </c>
+      <c r="C570" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B571" t="s">
+        <v>677</v>
+      </c>
+      <c r="C571" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B572" t="s">
+        <v>677</v>
+      </c>
+      <c r="C572" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>677</v>
+      </c>
+      <c r="C573" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B574" t="s">
+        <v>677</v>
+      </c>
+      <c r="C574" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B575" t="s">
+        <v>677</v>
+      </c>
+      <c r="C575" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B576" t="s">
+        <v>677</v>
+      </c>
+      <c r="C576" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B577" t="s">
+        <v>677</v>
+      </c>
+      <c r="C577" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="578" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B578" t="s">
+        <v>677</v>
+      </c>
+      <c r="C578" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="579" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B579" t="s">
+        <v>677</v>
+      </c>
+      <c r="C579" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="580" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B580" t="s">
+        <v>677</v>
+      </c>
+      <c r="C580" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B581" t="s">
+        <v>677</v>
+      </c>
+      <c r="C581" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="582" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B582" t="s">
+        <v>677</v>
+      </c>
+      <c r="C582" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="583" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B583" t="s">
+        <v>677</v>
+      </c>
+      <c r="C583" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="584" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B584" t="s">
+        <v>677</v>
+      </c>
+      <c r="C584" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="585" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B585" t="s">
+        <v>677</v>
+      </c>
+      <c r="C585" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B586" t="s">
+        <v>677</v>
+      </c>
+      <c r="C586" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B587" t="s">
+        <v>677</v>
+      </c>
+      <c r="C587" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B588" t="s">
+        <v>677</v>
+      </c>
+      <c r="C588" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B589" t="s">
+        <v>677</v>
+      </c>
+      <c r="C589" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B590" t="s">
+        <v>677</v>
+      </c>
+      <c r="C590" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="591" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B591" t="s">
+        <v>677</v>
+      </c>
+      <c r="C591" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B592" t="s">
+        <v>677</v>
+      </c>
+      <c r="C592" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B593" t="s">
+        <v>677</v>
+      </c>
+      <c r="C593" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B594" t="s">
+        <v>677</v>
+      </c>
+      <c r="C594" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B595" t="s">
+        <v>677</v>
+      </c>
+      <c r="C595" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B596" t="s">
+        <v>677</v>
+      </c>
+      <c r="C596" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B597" t="s">
+        <v>677</v>
+      </c>
+      <c r="C597" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B598" t="s">
+        <v>677</v>
+      </c>
+      <c r="C598" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B599" t="s">
+        <v>677</v>
+      </c>
+      <c r="C599" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B600" t="s">
+        <v>677</v>
+      </c>
+      <c r="C600" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="601" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B601" t="s">
+        <v>677</v>
+      </c>
+      <c r="C601" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B602" t="s">
+        <v>677</v>
+      </c>
+      <c r="C602" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="603" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B603" t="s">
+        <v>677</v>
+      </c>
+      <c r="C603" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B604" t="s">
+        <v>677</v>
+      </c>
+      <c r="C604" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="605" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B605" t="s">
+        <v>677</v>
+      </c>
+      <c r="C605" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>677</v>
+      </c>
+      <c r="C606" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B607" t="s">
+        <v>677</v>
+      </c>
+      <c r="C607" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B608" t="s">
+        <v>677</v>
+      </c>
+      <c r="C608" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="609" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B609" t="s">
+        <v>677</v>
+      </c>
+      <c r="C609" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="610" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B610" t="s">
+        <v>677</v>
+      </c>
+      <c r="C610" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="611" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B611" t="s">
+        <v>677</v>
+      </c>
+      <c r="C611" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="612" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B612" t="s">
+        <v>677</v>
+      </c>
+      <c r="C612" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="613" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B613" t="s">
+        <v>677</v>
+      </c>
+      <c r="C613" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="614" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B614" t="s">
+        <v>677</v>
+      </c>
+      <c r="C614" t="s">
+        <v>676</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pages/setup/data/important/post.xlsx
+++ b/pages/setup/data/important/post.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538DB435-EE9C-4DA4-AAAB-8A49A3FCA31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185635A5-DA98-4FD0-ABD7-AD10C3D2CDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="679">
   <si>
     <t>id</t>
   </si>
@@ -2054,6 +2054,9 @@
   </si>
   <si>
     <t>YOW</t>
+  </si>
+  <si>
+    <t>J0N</t>
   </si>
 </sst>
 </file>
@@ -2905,10 +2908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L614"/>
+  <dimension ref="A1:L615"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N570" sqref="N570"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="B470" sqref="B470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14425,15 +14428,15 @@
         <v>345</v>
       </c>
       <c r="C470" t="s">
-        <v>527</v>
+        <v>678</v>
       </c>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>561</v>
+        <v>345</v>
       </c>
       <c r="C471" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
@@ -14441,7 +14444,7 @@
         <v>561</v>
       </c>
       <c r="C472" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
@@ -14449,7 +14452,7 @@
         <v>561</v>
       </c>
       <c r="C473" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
@@ -14457,7 +14460,7 @@
         <v>561</v>
       </c>
       <c r="C474" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.25">
@@ -14465,7 +14468,7 @@
         <v>561</v>
       </c>
       <c r="C475" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
@@ -14473,7 +14476,7 @@
         <v>561</v>
       </c>
       <c r="C476" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.25">
@@ -14481,7 +14484,7 @@
         <v>561</v>
       </c>
       <c r="C477" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
@@ -14489,7 +14492,7 @@
         <v>561</v>
       </c>
       <c r="C478" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.25">
@@ -14497,7 +14500,7 @@
         <v>561</v>
       </c>
       <c r="C479" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
@@ -14505,7 +14508,7 @@
         <v>561</v>
       </c>
       <c r="C480" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
@@ -14513,7 +14516,7 @@
         <v>561</v>
       </c>
       <c r="C481" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
@@ -14521,7 +14524,7 @@
         <v>561</v>
       </c>
       <c r="C482" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
@@ -14529,7 +14532,7 @@
         <v>561</v>
       </c>
       <c r="C483" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.25">
@@ -14537,7 +14540,7 @@
         <v>561</v>
       </c>
       <c r="C484" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.25">
@@ -14545,7 +14548,7 @@
         <v>561</v>
       </c>
       <c r="C485" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
@@ -14553,7 +14556,7 @@
         <v>561</v>
       </c>
       <c r="C486" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.25">
@@ -14561,7 +14564,7 @@
         <v>561</v>
       </c>
       <c r="C487" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
@@ -14569,7 +14572,7 @@
         <v>561</v>
       </c>
       <c r="C488" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
@@ -14577,7 +14580,7 @@
         <v>561</v>
       </c>
       <c r="C489" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
@@ -14585,7 +14588,7 @@
         <v>561</v>
       </c>
       <c r="C490" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
@@ -14593,7 +14596,7 @@
         <v>561</v>
       </c>
       <c r="C491" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
@@ -14601,7 +14604,7 @@
         <v>561</v>
       </c>
       <c r="C492" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
@@ -14609,7 +14612,7 @@
         <v>561</v>
       </c>
       <c r="C493" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
@@ -14617,7 +14620,7 @@
         <v>561</v>
       </c>
       <c r="C494" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.25">
@@ -14625,7 +14628,7 @@
         <v>561</v>
       </c>
       <c r="C495" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
@@ -14633,7 +14636,7 @@
         <v>561</v>
       </c>
       <c r="C496" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
@@ -14641,7 +14644,7 @@
         <v>561</v>
       </c>
       <c r="C497" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.25">
@@ -14649,7 +14652,7 @@
         <v>561</v>
       </c>
       <c r="C498" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.25">
@@ -14657,7 +14660,7 @@
         <v>561</v>
       </c>
       <c r="C499" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
@@ -14665,7 +14668,7 @@
         <v>561</v>
       </c>
       <c r="C500" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
@@ -14673,7 +14676,7 @@
         <v>561</v>
       </c>
       <c r="C501" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.25">
@@ -14681,7 +14684,7 @@
         <v>561</v>
       </c>
       <c r="C502" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.25">
@@ -14689,15 +14692,15 @@
         <v>561</v>
       </c>
       <c r="C503" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="C504" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.25">
@@ -14705,7 +14708,7 @@
         <v>586</v>
       </c>
       <c r="C505" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
@@ -14713,7 +14716,7 @@
         <v>586</v>
       </c>
       <c r="C506" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
@@ -14721,7 +14724,7 @@
         <v>586</v>
       </c>
       <c r="C507" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.25">
@@ -14729,7 +14732,7 @@
         <v>586</v>
       </c>
       <c r="C508" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
@@ -14737,7 +14740,7 @@
         <v>586</v>
       </c>
       <c r="C509" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
@@ -14745,7 +14748,7 @@
         <v>586</v>
       </c>
       <c r="C510" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
@@ -14753,7 +14756,7 @@
         <v>586</v>
       </c>
       <c r="C511" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
@@ -14761,7 +14764,7 @@
         <v>586</v>
       </c>
       <c r="C512" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
@@ -14769,7 +14772,7 @@
         <v>586</v>
       </c>
       <c r="C513" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.25">
@@ -14777,7 +14780,7 @@
         <v>586</v>
       </c>
       <c r="C514" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
@@ -14785,7 +14788,7 @@
         <v>586</v>
       </c>
       <c r="C515" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
@@ -14793,7 +14796,7 @@
         <v>586</v>
       </c>
       <c r="C516" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
@@ -14801,7 +14804,7 @@
         <v>586</v>
       </c>
       <c r="C517" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
@@ -14809,7 +14812,7 @@
         <v>586</v>
       </c>
       <c r="C518" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.25">
@@ -14817,7 +14820,7 @@
         <v>586</v>
       </c>
       <c r="C519" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.25">
@@ -14825,7 +14828,7 @@
         <v>586</v>
       </c>
       <c r="C520" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.25">
@@ -14833,7 +14836,7 @@
         <v>586</v>
       </c>
       <c r="C521" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.25">
@@ -14841,7 +14844,7 @@
         <v>586</v>
       </c>
       <c r="C522" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.25">
@@ -14849,7 +14852,7 @@
         <v>586</v>
       </c>
       <c r="C523" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
@@ -14857,7 +14860,7 @@
         <v>586</v>
       </c>
       <c r="C524" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.25">
@@ -14865,7 +14868,7 @@
         <v>586</v>
       </c>
       <c r="C525" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.25">
@@ -14873,7 +14876,7 @@
         <v>586</v>
       </c>
       <c r="C526" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
@@ -14881,15 +14884,15 @@
         <v>586</v>
       </c>
       <c r="C527" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="C528" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.25">
@@ -14897,7 +14900,7 @@
         <v>606</v>
       </c>
       <c r="C529" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.25">
@@ -14905,7 +14908,7 @@
         <v>606</v>
       </c>
       <c r="C530" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.25">
@@ -14913,7 +14916,7 @@
         <v>606</v>
       </c>
       <c r="C531" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
@@ -14921,7 +14924,7 @@
         <v>606</v>
       </c>
       <c r="C532" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
@@ -14929,7 +14932,7 @@
         <v>606</v>
       </c>
       <c r="C533" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
@@ -14937,7 +14940,7 @@
         <v>606</v>
       </c>
       <c r="C534" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.25">
@@ -14945,7 +14948,7 @@
         <v>606</v>
       </c>
       <c r="C535" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.25">
@@ -14953,7 +14956,7 @@
         <v>606</v>
       </c>
       <c r="C536" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
@@ -14961,7 +14964,7 @@
         <v>606</v>
       </c>
       <c r="C537" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.25">
@@ -14969,7 +14972,7 @@
         <v>606</v>
       </c>
       <c r="C538" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.25">
@@ -14977,7 +14980,7 @@
         <v>606</v>
       </c>
       <c r="C539" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.25">
@@ -14985,7 +14988,7 @@
         <v>606</v>
       </c>
       <c r="C540" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
@@ -14993,7 +14996,7 @@
         <v>606</v>
       </c>
       <c r="C541" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
@@ -15001,7 +15004,7 @@
         <v>606</v>
       </c>
       <c r="C542" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
@@ -15009,7 +15012,7 @@
         <v>606</v>
       </c>
       <c r="C543" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.25">
@@ -15017,7 +15020,7 @@
         <v>606</v>
       </c>
       <c r="C544" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.25">
@@ -15025,7 +15028,7 @@
         <v>606</v>
       </c>
       <c r="C545" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.25">
@@ -15033,15 +15036,15 @@
         <v>606</v>
       </c>
       <c r="C546" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C547" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.25">
@@ -15049,7 +15052,7 @@
         <v>611</v>
       </c>
       <c r="C548" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.25">
@@ -15057,7 +15060,7 @@
         <v>611</v>
       </c>
       <c r="C549" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.25">
@@ -15065,15 +15068,15 @@
         <v>611</v>
       </c>
       <c r="C550" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B551" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C551" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.25">
@@ -15081,7 +15084,7 @@
         <v>622</v>
       </c>
       <c r="C552" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.25">
@@ -15089,7 +15092,7 @@
         <v>622</v>
       </c>
       <c r="C553" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
@@ -15097,7 +15100,7 @@
         <v>622</v>
       </c>
       <c r="C554" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
@@ -15105,7 +15108,7 @@
         <v>622</v>
       </c>
       <c r="C555" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
@@ -15113,7 +15116,7 @@
         <v>622</v>
       </c>
       <c r="C556" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.25">
@@ -15121,7 +15124,7 @@
         <v>622</v>
       </c>
       <c r="C557" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.25">
@@ -15129,7 +15132,7 @@
         <v>622</v>
       </c>
       <c r="C558" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.25">
@@ -15137,7 +15140,7 @@
         <v>622</v>
       </c>
       <c r="C559" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.25">
@@ -15145,15 +15148,15 @@
         <v>622</v>
       </c>
       <c r="C560" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B561" t="s">
-        <v>677</v>
+        <v>622</v>
       </c>
       <c r="C561" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.25">
@@ -15161,7 +15164,7 @@
         <v>677</v>
       </c>
       <c r="C562" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.25">
@@ -15169,7 +15172,7 @@
         <v>677</v>
       </c>
       <c r="C563" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.25">
@@ -15177,7 +15180,7 @@
         <v>677</v>
       </c>
       <c r="C564" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.25">
@@ -15185,7 +15188,7 @@
         <v>677</v>
       </c>
       <c r="C565" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.25">
@@ -15193,7 +15196,7 @@
         <v>677</v>
       </c>
       <c r="C566" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.25">
@@ -15201,7 +15204,7 @@
         <v>677</v>
       </c>
       <c r="C567" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
@@ -15209,7 +15212,7 @@
         <v>677</v>
       </c>
       <c r="C568" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.25">
@@ -15217,7 +15220,7 @@
         <v>677</v>
       </c>
       <c r="C569" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.25">
@@ -15225,7 +15228,7 @@
         <v>677</v>
       </c>
       <c r="C570" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
@@ -15233,7 +15236,7 @@
         <v>677</v>
       </c>
       <c r="C571" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.25">
@@ -15241,7 +15244,7 @@
         <v>677</v>
       </c>
       <c r="C572" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.25">
@@ -15249,7 +15252,7 @@
         <v>677</v>
       </c>
       <c r="C573" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
@@ -15257,7 +15260,7 @@
         <v>677</v>
       </c>
       <c r="C574" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.25">
@@ -15265,7 +15268,7 @@
         <v>677</v>
       </c>
       <c r="C575" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.25">
@@ -15273,7 +15276,7 @@
         <v>677</v>
       </c>
       <c r="C576" t="s">
-        <v>673</v>
+        <v>636</v>
       </c>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.25">
@@ -15281,7 +15284,7 @@
         <v>677</v>
       </c>
       <c r="C577" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.25">
@@ -15289,7 +15292,7 @@
         <v>677</v>
       </c>
       <c r="C578" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.25">
@@ -15297,7 +15300,7 @@
         <v>677</v>
       </c>
       <c r="C579" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.25">
@@ -15305,7 +15308,7 @@
         <v>677</v>
       </c>
       <c r="C580" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.25">
@@ -15313,7 +15316,7 @@
         <v>677</v>
       </c>
       <c r="C581" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.25">
@@ -15321,7 +15324,7 @@
         <v>677</v>
       </c>
       <c r="C582" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.25">
@@ -15329,7 +15332,7 @@
         <v>677</v>
       </c>
       <c r="C583" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.25">
@@ -15337,7 +15340,7 @@
         <v>677</v>
       </c>
       <c r="C584" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.25">
@@ -15345,7 +15348,7 @@
         <v>677</v>
       </c>
       <c r="C585" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.25">
@@ -15353,7 +15356,7 @@
         <v>677</v>
       </c>
       <c r="C586" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.25">
@@ -15361,7 +15364,7 @@
         <v>677</v>
       </c>
       <c r="C587" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.25">
@@ -15369,7 +15372,7 @@
         <v>677</v>
       </c>
       <c r="C588" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.25">
@@ -15377,7 +15380,7 @@
         <v>677</v>
       </c>
       <c r="C589" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.25">
@@ -15385,7 +15388,7 @@
         <v>677</v>
       </c>
       <c r="C590" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.25">
@@ -15393,7 +15396,7 @@
         <v>677</v>
       </c>
       <c r="C591" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="592" spans="2:3" x14ac:dyDescent="0.25">
@@ -15401,7 +15404,7 @@
         <v>677</v>
       </c>
       <c r="C592" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="593" spans="2:3" x14ac:dyDescent="0.25">
@@ -15409,7 +15412,7 @@
         <v>677</v>
       </c>
       <c r="C593" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="594" spans="2:3" x14ac:dyDescent="0.25">
@@ -15417,7 +15420,7 @@
         <v>677</v>
       </c>
       <c r="C594" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.25">
@@ -15425,7 +15428,7 @@
         <v>677</v>
       </c>
       <c r="C595" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="596" spans="2:3" x14ac:dyDescent="0.25">
@@ -15433,7 +15436,7 @@
         <v>677</v>
       </c>
       <c r="C596" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="597" spans="2:3" x14ac:dyDescent="0.25">
@@ -15441,7 +15444,7 @@
         <v>677</v>
       </c>
       <c r="C597" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="598" spans="2:3" x14ac:dyDescent="0.25">
@@ -15449,7 +15452,7 @@
         <v>677</v>
       </c>
       <c r="C598" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
     </row>
     <row r="599" spans="2:3" x14ac:dyDescent="0.25">
@@ -15457,7 +15460,7 @@
         <v>677</v>
       </c>
       <c r="C599" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.25">
@@ -15465,7 +15468,7 @@
         <v>677</v>
       </c>
       <c r="C600" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.25">
@@ -15473,7 +15476,7 @@
         <v>677</v>
       </c>
       <c r="C601" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.25">
@@ -15481,7 +15484,7 @@
         <v>677</v>
       </c>
       <c r="C602" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.25">
@@ -15489,7 +15492,7 @@
         <v>677</v>
       </c>
       <c r="C603" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.25">
@@ -15497,7 +15500,7 @@
         <v>677</v>
       </c>
       <c r="C604" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.25">
@@ -15505,7 +15508,7 @@
         <v>677</v>
       </c>
       <c r="C605" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.25">
@@ -15513,7 +15516,7 @@
         <v>677</v>
       </c>
       <c r="C606" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="607" spans="2:3" x14ac:dyDescent="0.25">
@@ -15521,7 +15524,7 @@
         <v>677</v>
       </c>
       <c r="C607" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="608" spans="2:3" x14ac:dyDescent="0.25">
@@ -15529,7 +15532,7 @@
         <v>677</v>
       </c>
       <c r="C608" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="609" spans="2:3" x14ac:dyDescent="0.25">
@@ -15537,7 +15540,7 @@
         <v>677</v>
       </c>
       <c r="C609" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="610" spans="2:3" x14ac:dyDescent="0.25">
@@ -15545,7 +15548,7 @@
         <v>677</v>
       </c>
       <c r="C610" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="611" spans="2:3" x14ac:dyDescent="0.25">
@@ -15553,7 +15556,7 @@
         <v>677</v>
       </c>
       <c r="C611" t="s">
-        <v>669</v>
+        <v>632</v>
       </c>
     </row>
     <row r="612" spans="2:3" x14ac:dyDescent="0.25">
@@ -15561,7 +15564,7 @@
         <v>677</v>
       </c>
       <c r="C612" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="613" spans="2:3" x14ac:dyDescent="0.25">
@@ -15569,7 +15572,7 @@
         <v>677</v>
       </c>
       <c r="C613" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="614" spans="2:3" x14ac:dyDescent="0.25">
@@ -15577,6 +15580,14 @@
         <v>677</v>
       </c>
       <c r="C614" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="615" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B615" t="s">
+        <v>677</v>
+      </c>
+      <c r="C615" t="s">
         <v>676</v>
       </c>
     </row>
